--- a/Resumen.xlsx
+++ b/Resumen.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo\Documents\Modelamiento Matematico\Colcafe\Colcafe_Camilo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo\Documents\Modelamiento\Colcafe\Colcafe_Camilo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEE8722-E66C-48D6-995F-D78DC8E0A1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A14AB2-464A-44E7-A591-07C7C5E3BA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{44D4251C-3F66-45F4-BE0B-97D85A396907}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{44D4251C-3F66-45F4-BE0B-97D85A396907}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulaciones" sheetId="2" r:id="rId1"/>
     <sheet name="Bromatológico FCS" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>Parametros Simulación</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Nathaly</t>
   </si>
   <si>
-    <t>Camilo</t>
-  </si>
-  <si>
     <t>T0</t>
   </si>
   <si>
@@ -139,9 +137,6 @@
   </si>
   <si>
     <t>Ejecutado correctamente</t>
-  </si>
-  <si>
-    <t>Codigo</t>
   </si>
   <si>
     <t>Run_1</t>
@@ -154,10 +149,6 @@
  </t>
   </si>
   <si>
-    <t>Ejecutado correctamente
-No hubo cambio significativo con Run_1</t>
-  </si>
-  <si>
     <t>Ensayo/Método</t>
   </si>
   <si>
@@ -252,6 +243,69 @@
   </si>
   <si>
     <t>Kcal/100g</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulación de cava pequeña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecutado correctamente
+</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Al disminuir el tamaño de malla, se acercó más al real</t>
+  </si>
+  <si>
+    <t>Run_3</t>
+  </si>
+  <si>
+    <t>Run_4</t>
+  </si>
+  <si>
+    <t>Malla grande sin modificar funciones ni composiciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malla más pequeña sin modificar funciones ni composiciones
+</t>
+  </si>
+  <si>
+    <t>Inicial</t>
+  </si>
+  <si>
+    <t>Malla grande modificando funciones y composiciones</t>
+  </si>
+  <si>
+    <t>Se acercó más que el inicial, pero no más que el de malla mas pequeña</t>
+  </si>
+  <si>
+    <t>Malla más pequeña modificando funciones y composiciones</t>
+  </si>
+  <si>
+    <t>Se comporta mucho mejor, aunque hay un desfase de la temperatura.
+Se cambiará la T_inicial</t>
+  </si>
+  <si>
+    <t>Run_5</t>
+  </si>
+  <si>
+    <t>Se conservan los parametros anteriores, se disminuye la T_inicial</t>
+  </si>
+  <si>
+    <t>Se acomoda mejor en el primer tramo T &lt; T_cong</t>
+  </si>
+  <si>
+    <t>Run_6</t>
+  </si>
+  <si>
+    <t>Aunque aumenta el tiempo de ejecución 1.5horas, el resultado es muy similar</t>
+  </si>
+  <si>
+    <t>No justifica el aumento</t>
   </si>
 </sst>
 </file>
@@ -263,7 +317,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +340,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -301,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -536,17 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -701,12 +750,75 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -717,33 +829,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -765,13 +876,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -781,67 +889,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1159,418 +1284,751 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F1F62A-AA80-4D4B-B3DD-3C9A97ADF62A}">
-  <dimension ref="B1:F28"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" customWidth="1"/>
+    <col min="5" max="10" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="56" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="48" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="61" t="s">
+      <c r="D4" s="15">
+        <v>299.14999999999998</v>
+      </c>
+      <c r="E4" s="27">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="F4" s="27">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="G4" s="27">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="H4" s="27">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="I4" s="48">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="J4" s="27">
+        <v>283.14999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="67"/>
+      <c r="C5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <v>253.15</v>
+      </c>
+      <c r="E5" s="35">
+        <v>246.65</v>
+      </c>
+      <c r="F5" s="28">
+        <v>246.65</v>
+      </c>
+      <c r="G5" s="28">
+        <v>246.65</v>
+      </c>
+      <c r="H5" s="28">
+        <v>246.65</v>
+      </c>
+      <c r="I5" s="28">
+        <v>246.65</v>
+      </c>
+      <c r="J5" s="28">
+        <v>246.65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="67"/>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I6" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="67"/>
+      <c r="C7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I7" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="68"/>
+      <c r="C8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="E8" s="29">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="I8" s="29">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="J8" s="54">
+        <v>0.4052</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="16">
-        <v>299.14999999999998</v>
-      </c>
-      <c r="E4" s="28">
-        <v>293.14999999999998</v>
-      </c>
-      <c r="F4" s="28">
-        <v>293.14999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="62"/>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="17">
-        <v>253.15</v>
-      </c>
-      <c r="E5" s="36">
-        <v>246.65</v>
-      </c>
-      <c r="F5" s="29">
-        <v>246.65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
-      <c r="C6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="26">
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="70"/>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>75000</v>
+      </c>
+      <c r="E10" s="24">
+        <v>200000</v>
+      </c>
+      <c r="F10" s="8">
+        <v>200000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>200000</v>
+      </c>
+      <c r="H10" s="8">
+        <v>200000</v>
+      </c>
+      <c r="I10" s="8">
+        <v>200000</v>
+      </c>
+      <c r="J10" s="8">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="70"/>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11</v>
+      </c>
+      <c r="E11" s="24">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8">
+        <v>20</v>
+      </c>
+      <c r="I11" s="8">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="70"/>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.03</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.02</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="70"/>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1E-4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>1E-4</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1E-4</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1E-4</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="23">
+        <v>1E-4</v>
+      </c>
+      <c r="J13" s="23">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="71"/>
+      <c r="C14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="38">
+        <v>0.09</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="H15" s="31">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="I15" s="31">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="J15" s="31">
+        <v>0.57150000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="73"/>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="39">
+        <v>0.1023</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.875</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="I16" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="J16" s="32">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="74"/>
+      <c r="C17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E6" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F6" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F7" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="63"/>
-      <c r="C8" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="27">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="31">
-        <v>0</v>
-      </c>
-      <c r="F9" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="54"/>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8">
-        <v>75000</v>
-      </c>
-      <c r="E10" s="25">
-        <v>200000</v>
-      </c>
-      <c r="F10" s="9">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="54"/>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="8">
-        <v>11</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="E17" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0.03</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="I17" s="47">
+        <v>0.02</v>
+      </c>
+      <c r="J17" s="20">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="D18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="59"/>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="59"/>
+      <c r="C20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="34">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="54"/>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1E-4</v>
-      </c>
-      <c r="E13" s="24">
-        <v>1E-4</v>
-      </c>
-      <c r="F13" s="24">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="64"/>
-      <c r="C14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="39">
-        <v>0.09</v>
-      </c>
-      <c r="E15" s="37">
-        <v>0.57150000000000001</v>
-      </c>
-      <c r="F15" s="32">
-        <v>0.57150000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="66"/>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="40">
-        <v>0.1023</v>
-      </c>
-      <c r="E16" s="38">
-        <v>0.875</v>
-      </c>
-      <c r="F16" s="33">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="67"/>
-      <c r="C17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="41">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E17" s="21">
+      <c r="E20" s="41">
         <v>0.03</v>
       </c>
-      <c r="F17" s="21">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="51"/>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="35" t="s">
+      <c r="F20" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="G20" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="H20" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="I20" s="41">
+        <v>0.03</v>
+      </c>
+      <c r="J20" s="41">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="60"/>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="21">
+        <v>2E-3</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="G21" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="H21" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="46">
+        <v>0.01</v>
+      </c>
+      <c r="J21" s="46">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+    </row>
+    <row r="23" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="51"/>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="35">
-        <v>0.03</v>
-      </c>
-      <c r="E20" s="42">
-        <v>0.03</v>
-      </c>
-      <c r="F20" s="42">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="52"/>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="22">
-        <v>2E-3</v>
-      </c>
-      <c r="E21" s="46">
-        <v>0.01</v>
-      </c>
-      <c r="F21" s="49">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>29</v>
+      <c r="C23" s="51" t="s">
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>5020</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <v>7686</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <v>23753</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="35">
+      <c r="G23" s="31">
+        <v>23753</v>
+      </c>
+      <c r="H23" s="31">
+        <v>23753</v>
+      </c>
+      <c r="I23" s="31">
+        <v>23753</v>
+      </c>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="56"/>
+      <c r="C24" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="34">
         <v>24729</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>39039</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="41">
         <v>129237</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="54"/>
-      <c r="C25" s="1" t="s">
+      <c r="G24" s="41">
+        <v>129237</v>
+      </c>
+      <c r="H24" s="41">
+        <v>129237</v>
+      </c>
+      <c r="I24" s="41">
+        <v>129237</v>
+      </c>
+      <c r="J24" s="41"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="56"/>
+      <c r="C25" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="E25" s="41">
+        <v>0.74</v>
+      </c>
+      <c r="F25" s="41">
+        <v>73</v>
+      </c>
+      <c r="G25" s="41">
+        <v>73</v>
+      </c>
+      <c r="H25" s="41">
+        <v>73</v>
+      </c>
+      <c r="I25" s="41">
+        <v>73</v>
+      </c>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="56"/>
+      <c r="C26" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="35">
-        <v>0.62</v>
-      </c>
-      <c r="E25" s="42">
-        <v>0.74</v>
-      </c>
-      <c r="F25" s="42">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="54"/>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="34">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="E26" s="32">
+        <v>51.61</v>
+      </c>
+      <c r="F26" s="32">
+        <v>1637</v>
+      </c>
+      <c r="G26" s="32">
+        <v>453</v>
+      </c>
+      <c r="H26" s="32">
+        <v>453</v>
+      </c>
+      <c r="I26" s="37">
+        <v>690</v>
+      </c>
+      <c r="J26" s="37">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="56"/>
+      <c r="C27" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="35">
-        <v>18.079999999999998</v>
-      </c>
-      <c r="E26" s="33">
-        <v>51.61</v>
-      </c>
-      <c r="F26" s="33">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="55"/>
-      <c r="C27" s="43" t="s">
+      <c r="D27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="E27" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F28" t="s">
-        <v>36</v>
+      <c r="F27" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="56"/>
+      <c r="C28" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="57"/>
+      <c r="C29" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B23:B29"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B23:B27"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="B15:B17"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1579,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC2C881-8675-452E-8EFB-73E8BD884A2A}">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C18"/>
     </sheetView>
   </sheetViews>
@@ -1590,195 +2048,195 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
